--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/3_Afyonkarahisar_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/3_Afyonkarahisar_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{748F4F10-874D-484F-893D-9C235ECDF95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26CE5E6F-1062-46A4-907A-AB222339B5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{4A7BCF57-A090-40A7-86F0-8F244C1E7892}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{00D76441-710E-40C3-9962-0927A22DDB7F}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -980,19 +980,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Ana Başlık 2" xfId="1" xr:uid="{9DA8D957-D83C-48B6-BA2E-8BFB7E83E085}"/>
+    <cellStyle name="Ana Başlık 2" xfId="1" xr:uid="{EF3174E2-0B07-43EC-BED4-F12F0A277C1E}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{89FC65A2-37CA-464A-88F8-32C069DAED31}"/>
-    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{DFD072AA-2E22-49C0-888C-81DD5D939BE9}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{31B16196-18AA-437E-8CF2-4F4D45941C93}"/>
-    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{9317FD54-7E36-46D0-9DE8-A5B7EA840E43}"/>
-    <cellStyle name="Normal 4" xfId="7" xr:uid="{53590AD1-24B6-4979-9255-F71162650927}"/>
-    <cellStyle name="Normal 4 2" xfId="8" xr:uid="{9D6C61AE-8E33-4786-9554-D3BCF05D9CE1}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="9" xr:uid="{484F235E-3D5E-43BA-99DE-B63C34F0EAC4}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="10" xr:uid="{2CCA283C-0189-4814-943E-6E24BB0D6C49}"/>
-    <cellStyle name="Not 2" xfId="11" xr:uid="{F3B45547-D591-472F-BCC7-A75A2CED04AE}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="12" xr:uid="{379E5B32-02E9-455F-9CB0-5F02AF824A1C}"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{46800BDF-A4C4-4BDA-9C69-817D20DF14A1}"/>
+    <cellStyle name="Normal 2 2" xfId="4" xr:uid="{B27EF560-44BA-46F4-A79A-802B8F47E66C}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{F777B252-1A6E-4995-9683-1DED02F57F5D}"/>
+    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{031AAADE-A20E-4DE7-8526-4C0D47D073BA}"/>
+    <cellStyle name="Normal 4" xfId="7" xr:uid="{CADE607A-7938-46CB-B2FF-1EDCF3D7925E}"/>
+    <cellStyle name="Normal 4 2" xfId="8" xr:uid="{12103A28-C853-4D11-9064-E96658F96436}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="9" xr:uid="{AE973560-CED5-468F-83E2-3B7ADB17CEFF}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="10" xr:uid="{CA939ECC-5022-40C3-9B98-65B449023DEE}"/>
+    <cellStyle name="Not 2" xfId="11" xr:uid="{BFFC6760-D8B4-44B9-A9E9-827195A284C4}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="12" xr:uid="{71951A88-8C95-4544-A405-763CF735EF03}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1362,7 +1362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5919F0-CA80-4244-AD5C-5FFC0781EA10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D27E121-3BB4-42B5-9241-9163B9A67034}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2700,18 +2700,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{538EC39D-4C2E-4ADF-8D08-E95143A9DD1D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{98521DBE-DB28-4DD2-AEA0-62D1FE774892}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FDC87C93-D8D4-4BD3-8863-F1671B60DF60}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FFC786F1-A0AB-4D4D-BF3D-46509A4D4FCD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AFFCAC21-9FCF-460A-9E89-7474DDBB134C}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EC7E4A44-0A9E-4461-AE97-F45D73F8F30D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FE5FCC5A-72C1-4655-BDA9-966356E3B722}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A811ADC6-4E36-4C6A-9671-60E532A6C8B4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B3B3A5C3-F5F0-4C82-B6C0-3D1FE2815BE7}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8767169A-81BD-4C11-BD13-148D59ED062A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{58A6B0E3-90AF-477E-B66B-C33B709DE815}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A2BFB5D4-017E-4489-B3BA-502C12E7D7AB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{011A4F7E-FBBE-4F47-90F8-A25D65B78731}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{63049EBC-279E-44B2-9B3F-857FC978BD2D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2D4ECDB8-8C43-4F28-87BA-67C1941DD66C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F293AC36-27C0-4ACF-B41D-141DC5D58B91}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3D30AC03-6733-43AD-98F0-50E16AFDF732}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{25DBBFA6-48AC-4AF3-9119-BED72CDF1F17}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8D42F339-B424-45D0-A3E0-472F9A197B11}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C306769A-E4A6-4797-A18B-D9CCB919A162}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4942B7BC-89D5-4B9A-B6C7-D9C937EEDC9C}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{ACD735C9-1E3A-4D77-B515-05E3D1C27011}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7473F5CE-DA98-4112-B9E3-3800004241F6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{313264B3-3D6F-4FB0-AFC3-34AF8CC50D83}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2724,7 +2724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB21CED-6D89-4353-B437-8476F7F0AB4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BFE61F8-EA07-4029-B762-E706729993B7}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -4053,18 +4053,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EE3285C1-1CC3-49FC-969F-B133CA93327D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0CEF7E39-684E-42CD-9469-6DA45BF08B8E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E130B353-044C-40D1-B2E5-489D3EA22469}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{885489C0-1D3D-44A2-8E3E-894A73AD388D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E6643BAD-0BDA-4A34-9897-B44CE97E48BF}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F7031C24-5B89-4807-A5B1-3F2A68ECE517}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B9702A1F-6833-4715-BF9E-F270CFA2F5D9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0CF44973-0FA3-45E4-B977-C4F6C9C83EC3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5B2D6F34-766F-4DE0-837A-9DFB282C46DE}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{CAAE3ED9-900A-4789-8D19-5A60389BAAAE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AD2A33C9-B5B0-4E06-9A9D-B7F6AB983DD8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A049A7C3-B215-41DD-A5A5-E47A568CAD0E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F6CCDA6D-2C73-43CE-A97E-2EAE3C706E31}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{023D72DF-0546-4000-932B-1B477F4E5845}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{59FB5FB4-7EF3-416A-95F2-189AA5E8C6E2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0EDB1A0F-2E85-46E1-93A1-9DD7848279FF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E1D6D039-C5E6-4622-A700-EDF690167DBE}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{20E15DED-8B8D-4457-B9E9-2666D2B1037A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0B3DE898-6008-4421-A5CC-6C2B393090AE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4312F67F-8838-47C3-917A-5BF107FC8221}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{540D6C02-4087-46F9-99B7-0F542A120A9D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D3CDFBB1-1AE4-45D7-B55D-B1AD71E23C25}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{85D0E982-25E8-4BBB-92D0-393961746588}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{025E840F-A0C7-4082-8543-5B639E1F62F9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4077,7 +4077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B31F6A-AA65-486C-8B9C-F4633A31FFE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D593DF-C8A3-4AA0-AFF6-26629840BDA5}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5400,18 +5400,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D4219931-A260-4A2D-A0DE-D38E7428C1E2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D8DFAFB0-2CA0-4F77-99F0-AC87BAA5927F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F71F5E73-BBDA-4CFE-968F-52467F0B79C3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6C1A623A-7A12-4EE8-8E57-06A2E96B9388}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B7CD6E90-E4ED-46FF-9F6E-51A489390901}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3F31BFB6-DD93-4215-ACD4-CE67921AEBD4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{386B04B6-480D-4B24-B296-B46347845FA9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8B0E7D6D-E6AE-4564-9388-C64A04019EFF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AD349BC3-5164-4EC7-820B-00F7F8EAC5B2}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5D3240A2-80EF-4C6C-9D65-2FF9C038B5C5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F4C6E69F-C404-46BC-97AC-DC0D9A07475C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{797935A4-3C86-44DD-A1A7-390D2FFC03A4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2121DE82-6977-4F0B-BCE0-B8201DDD5ED3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3B0B6A2B-BD0A-4D1C-9285-B52D8A24E50E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5DAE78F2-6419-4D5E-9908-3745ECB4F2BD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{98867C10-BBA5-4280-8ECC-487535BA548D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D6020DC8-B43B-4235-AFA3-E3A7C563FB22}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{10B5B5F1-58DB-4F7F-852D-898D63311498}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9DEAFEE5-33AF-4162-80C4-6D400E8EEA8C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{31C1CD5A-BA99-4C69-8B08-3B342024C2CF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1C040D3D-F809-4DA4-AF46-B4F61947D942}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2BC95345-5764-4206-90FC-D88EC1CEB712}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DACC80D5-E86B-4B06-B78C-A41D46F91300}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FEEAE800-6DA6-4D0F-A640-98298E76D546}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5424,7 +5424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F784BF-1195-4406-8319-5A5E5A13CE6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E3CDC6-0AB1-4D20-8ACF-8B37FBA6901C}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6725,18 +6725,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F83D4BAA-ADE8-4D6F-B0A8-07433402BB41}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{724494BB-3C8E-4F5B-82CE-69E9E2EB6F08}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0AEE66A7-AA6A-4B7E-ADC1-E2C5EC74CF32}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{47C14369-0932-4FCB-8813-0651A613FE18}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FE845556-548E-4384-8460-1F7C0EB7F610}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6A663825-B25C-4605-A1AB-03441250EA11}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C36C666E-4E46-41C3-8CA4-C3925987DA7D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1FFE4120-3B30-4DCE-83DA-E11316F63625}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3E6D5589-BD6D-4E8A-99B3-E8D313813B03}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0927B66C-E112-4DE5-A799-078E41546D0C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3A1606A1-DCFE-443B-8044-92F2A1766BC3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3E8C57B1-CCE4-4803-B471-38CD6156EC48}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{03A9BB3C-B8F9-422A-ADC0-362735B91C02}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{759C679B-9F82-478C-8CEB-4C259395BCEC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A0FAC793-37CE-4777-894B-60ACB9DF0C80}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7703CCAA-5918-4EAB-AE4D-C21BA8A9CBF5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A59D54E6-FA66-46C5-B371-DA3B15B2EAD6}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DAA62320-3D0F-42E9-B8F9-9AD079A82CDD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3BBF5DD4-38D9-41BA-B9AF-A287CD16B393}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D5B71107-0F69-4835-B6C6-9F97588ED84B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{47E94604-6777-4731-B3BF-929513977779}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1BF2537B-EDAD-42BF-B329-E72B4906153E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B7BEC218-8BE8-4AF4-AD0D-62B5BF0D98BE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A7DB9C52-6568-4951-93D8-21769E3E740B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6749,7 +6749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE3ED16-C45A-4D01-9895-E7B6031132A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9310C003-06CE-473A-9245-146BB5DAF603}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8087,18 +8087,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B6BB57D5-10C5-4CB9-8B69-592733221EE6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{67A6685A-0A1C-4595-BB0F-828C79D31448}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{98561A7F-C802-4350-A38A-4DFFA9BD30C6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E6C1DBA3-739F-4D88-B023-74604EB4097A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4AD31A2F-A6A4-4A8A-92CE-1AC8286C2DF2}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{812B488A-94AB-4C8A-BB06-2C90D224F3EA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1CAAF23C-7FAF-4EE9-A505-683BE8D8397C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D2D414A0-22D8-48A9-999B-61BCA2F102F8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BD22E9BF-DB9A-4C05-88FE-AC9AD84E9DC3}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B45668A3-19DD-49DB-B090-6E18DEBFC6A0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A2A7D808-04F6-4212-90AD-8D5108E13972}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{54DB7693-BA50-45D6-A9A0-41D1125D8E4D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3E120380-2DD3-47C1-A3A1-58CE3E289380}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6B3143D9-3303-4DC5-9EC7-D1A7C0267EF3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{347F99FA-708F-4943-A8EF-F1C21A0371FF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4E652438-6A66-4F38-8731-A5BDD75E58B6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{49527062-2A34-466C-A48D-B5EBDDD0C789}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A32A9C28-95D8-47FB-B6CF-60049136C04B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4488E036-F115-4040-92CB-1FB8F85146E7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9DFA2D1F-AE09-43A5-9443-868700EEC2EE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2BBF4E83-B84D-4EC1-840E-E14B0B0569D5}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{92FBC53B-8417-4A8E-BED2-22C9F9DB88AD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9477E907-95D3-44D4-B10A-E0630DDBDBA3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3B0594E4-891F-4C3F-A4E5-CA1B51D7D7F7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8111,7 +8111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8156224E-ED4B-4EB2-B628-EC0049B161F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB6B799-C0C6-4811-AC58-8BDB31A42246}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9445,18 +9445,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6E6C4C67-CBCE-42B5-90A1-4174E88BC9A5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AE8B69A0-4E87-4A89-8710-30BF53B752EA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{44E411E9-05F3-4A02-88BD-D07F3903FF8A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AACBD8A4-51A2-4C0A-A1C3-742001B1025C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BA84D8A8-217E-4D40-9567-1C19A5D38F0F}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{42D394AF-0F2E-46C3-965C-01851E25F498}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C1D66E29-D3C1-4196-BFA4-C25DC6C1AED2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EC5B17B6-4912-49FF-B718-EC9D6545883C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E1966C2D-B880-4101-A37A-CCAA02280ECB}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6D1C0181-89BF-4D79-988D-651097B0973E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{74184F06-36BE-4117-A5EA-490F4BE543CD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C763D82C-B419-4320-AA34-2432892FB34A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0FB1EDE1-19C8-4E71-9FD5-1A39C5C00109}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E138D100-8DE0-4E15-ADA6-E220679E0223}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{927125DD-E683-4CB0-90F3-0F43EFAFC3FE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8735A8C4-BFD1-453E-8CF5-4BB92F743F2D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AED0E39B-61FE-45B9-9DCD-07522BD05DE9}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A2DF0B96-2E45-4146-B0D1-52BB536A88A5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AAB6E40F-EA0D-40F4-AEAE-4DF24CAF434E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5B7980B9-1169-4A09-9E23-E20CDD3E1A68}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{96C52C9E-107C-459B-BDBE-30415542A30A}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{64CB1907-C305-4EF1-B3E6-65C5A8DA0BB8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6B63E3F7-5497-4C84-9784-7BE25CEE6BE8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EB33B1B2-2946-49FC-BCFA-2FCDB4417D48}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9469,7 +9469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BD66685-37B7-4D25-8CCA-9E4C32728FD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A86E125-097E-4DF7-B5CB-D0F9DFE23AF8}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10803,18 +10803,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9E1055F7-BA84-493D-BAC8-02B0CE4E12DD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0D092988-FB24-4FB7-9E86-413D66BD439A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{19A61762-C753-4C47-B3D5-27D491AF8459}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B17F092C-E03F-4D85-AB20-4F742E21AE36}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CBB31B8E-15D1-41CE-8CA7-DBA48B4E9082}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CC8ADE82-4A03-4C27-9944-F20BBC0920D3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8E378161-6D07-4383-98B2-BEAB2C580C76}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D9657CBA-7F20-43B1-A567-979CAC3BCE28}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{690185F5-2092-4FBD-A389-1FBACAEEE5A0}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{BA266706-DE17-4FFF-8BFE-C9F61B2F6977}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B8953F48-C383-4EED-9F0B-B99B68703F31}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{50BB18AE-7E08-4602-A93A-661FB53F7DCB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{172868DD-E740-49B4-B570-2BA50E476E63}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7246DFBE-3D71-4198-B3BA-55BEF960FCFA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E763369A-3EE7-4447-A066-E6EA4DBC9F19}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3E104861-7DCE-4759-9BC1-EE89BFA68B03}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{56D478CD-CE47-4558-947A-7AB2BE1E4D2F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{06302DD8-6AB7-493F-82A6-F2CBA1FC0D73}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DACB6394-7FD3-4A3A-BD0C-9C96AB09CD46}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{60DD34F4-5385-40C9-9ADE-8F64BD784B47}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BED07673-F346-4773-97D6-AD4F9685FF26}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A4FB26DD-A735-4610-B032-9908DA010DF9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A9BEE13F-3EFB-46A7-B8B1-3A83AA7A4022}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2E3AA1E8-44D6-4345-9E6E-F37CB4EC3072}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10827,7 +10827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591D1EAE-E1A9-4B1C-8CC2-1727232E9C69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2048D455-12A4-4AA7-AE1E-71FDDC52FF9B}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12161,18 +12161,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{95A9CEBF-B653-4D8E-8C17-072A0870C0D9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A695341E-5332-4002-B20C-E8B269A23DE8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2F729F8F-F680-41E6-A93F-0D8DA310896F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B34E05D4-C4E7-4A84-9C53-8DCCF4FA3D48}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{75CB3A57-2165-4269-9FF5-2DAF9127FF54}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CF16EF1F-C251-4996-9504-6D09504294F7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DB96F39D-B9DE-40C8-83F0-E733E43498FD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{05AE4C8C-AA09-4105-B2CA-78F77EE714A0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EA32D6AD-61D1-46AB-9810-A5B7BCA1E80B}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{958BFEFF-218C-49A4-BEA6-A55EAE097C07}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BC435B11-1E06-4720-A84B-740F5ED12C9F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E24935BF-7B1C-4080-B394-5178BD6BA9B8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9E18F6D5-F94E-4899-9783-E99C0B9232BA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7CCA061A-6EE8-44A3-95FA-3D9B1B675E25}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1BA789E0-88BB-41EB-8479-1B1D0DA1CCC3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0BD476B7-ADA8-466E-AE1C-BEBFBF0753EC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{54CE1A26-D036-4E36-AE9F-FD65D7F3919D}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4F724C7F-5E99-45B6-A372-CD8FF7AA1A32}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D1D94FA2-21EE-414F-BD16-E9E23B2F6D53}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BA909A7E-AB49-4AA6-99B3-4AC3BF18BF05}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A17AFAE1-85E3-453D-AD47-BFCA9137DE01}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B0D18C8E-4EAD-4FF1-9BE3-6435CBA80EB1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{924B4546-7995-4986-9F0A-8A425A3B791F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{661058C7-3609-4574-9909-66CD132748F8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12185,7 +12185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3773D6EF-D51D-460E-B098-D4AF2D426E5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26226F7-6E6C-40AF-A79D-3699D1D4B613}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -13512,18 +13512,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3A457AD4-298B-4C16-AA60-F360E08F3193}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DBF8FA06-AB1C-4D0F-8B30-221B353C974A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4182330F-3E54-46A4-8251-BF027A9B2124}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{094B30D4-D120-4A39-8D6A-CBC9B1DF3A4F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9E32BFB1-3F89-45CA-B469-35C68C8735BF}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{46C2DB7E-0805-4FBB-AD7C-E2AE04DB527E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B042F44F-3388-43D4-BD57-FF5826D14005}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A466C27A-4653-4731-A228-C85E84B8E163}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5EAE7F73-2C57-46DC-B738-29E9CF2E22AE}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2DC9EE1F-11C3-4BC3-9529-CAB174911D27}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5C70EFDB-C6DE-443F-B864-ACE35EE84C72}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2B47FB51-5997-4987-B482-2AE11CAE6E89}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5DEC79F8-E879-4C0A-8CC0-C83399EEF8C1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F6A5B06F-1882-4077-AAF0-26C954F6A10E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DE9B61CA-9158-4BC9-BCA9-D08DC81296E9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C55633F6-8A19-4AFE-A281-4326194E7001}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7E9B22CA-2708-4784-A356-661FE23AB0D5}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{ADDC2460-D73D-4B39-839F-A32147F119D8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4B749BA6-7733-4292-9E8F-5BDAF083616D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{687A25DF-E751-441E-B65C-D4944E99CEB1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BB8EDFD1-709F-4677-A92F-2AE1B6A9BD29}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{29D79BB1-ECB8-434A-82CA-F3881EA88902}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1A98F981-0518-4FC6-BD84-8AE253405066}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F008B19D-6516-40CF-94D3-6494CD098800}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13536,7 +13536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B25A1E-9ACB-448E-AC06-9FE498834953}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86507A8-A4E9-465A-9EC3-9AE8BEB491C2}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -14865,18 +14865,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F87C8874-6C0B-4AD2-AC70-C77E483DEA1E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{15B647C3-A022-4997-8D82-25ED71AF2455}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2D1D2D69-9A78-40FF-837C-7C9402463AE8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6184CAF5-69DE-4E94-9A26-923096600449}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{960C00D6-DF96-4B89-97AF-CBF01F570F69}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E12A8C42-2EE5-4979-A943-A8549965824F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{68B38FDA-E331-427D-B2E4-0F88BAE9E1E8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C274CC5F-D3D9-499E-93CE-8A0AAE20326E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E536365F-3341-4408-851A-61D48DF6198E}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{60BA64B4-5986-48F7-82D8-EFEC8F11EDEE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{35053209-B119-46D3-9212-3BA8046843FB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{02DB3657-B852-40CB-881F-6B6AE0AA0E70}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C7E6C1A0-F790-48EC-AF11-96B9E56E7504}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D9D308D3-D41A-49B5-8BAA-12FB5EB72B6F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B3B0EC1E-CD75-44E9-8C1F-04E7A0FD6725}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D565F1E5-76F9-45F1-B455-6AA303E690E5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7E536CF3-DAED-48B6-8C70-FBB28D19F070}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{07B19824-EABD-4E0B-BEDC-DAA04CF40A23}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BEFFE121-D54D-466B-9A02-09AB657A878A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B36AB462-C089-4383-9A1F-6046C4BF45BC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6E498931-6235-4551-A82B-D4FA1E917832}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5DD9FBCE-355B-4E0A-9995-08B9438F7E0C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4646ADE9-CE19-4C5A-AFC2-1E88640C423C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5923B279-4C51-4A6D-9E84-1B69DBA73716}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14889,7 +14889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F1CCFA-3DF5-4C14-885B-612D8E89D1B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D8A702-29B9-45AB-A665-C7F024199503}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -16218,18 +16218,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{316E8C3A-91C5-4ECD-B440-E8E833CD3BCA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F66C6989-5A8D-4CF8-89D5-B9D84FA382B4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{63D5F413-9B53-4E51-99EF-AB95F38B7C90}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2A44058C-405B-4300-9726-C3DD5F3AEF27}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E2A9675B-052B-4000-A09E-6096DDE447D8}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{586E0398-74F6-4219-AEE3-CAFB8489BABA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{722C0CA0-BDFF-419A-9E32-EA4DED06E6F3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F3506926-126D-4AFD-9BA3-D634311DC7FA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FC1E944C-1BF1-4290-B4C4-897B34DDB22F}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FF67F007-8437-440A-8858-EDA712B3C55F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{177736C9-D78F-458A-BE0B-A15D02979321}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EC4814CB-5ED0-407A-B4DC-FE7D54F420B3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F6D7B486-9800-4DD9-9D18-4C3C5B1A64EE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{84DBD72E-8D58-42FA-A4D3-222DF05969E1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FAC2733D-3DA5-485B-BE74-40019159CF4F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D7694DA9-C45D-4A01-A339-A04E2D414875}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{46BF2FFF-7518-45E9-BA00-68191799AECC}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CA65ABDA-C60E-4D20-8E2F-FE8EAC1F1D77}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4AB94B56-D0BF-41B2-96CE-0F9AED06C710}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3F97D756-B9B9-417A-B168-15C10AAFC1DE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1E363967-AC17-4875-88D9-A2CB90316766}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F08F7ADA-14BD-4490-B9C7-2631555A0D14}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0C654517-61F1-409D-8F62-4D1F8D1FE358}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A9E4E799-36E7-4292-8959-587E2DAD27E2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -16242,7 +16242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C34DEEE-9B67-4AD7-8603-803F60B449D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D82D9B89-69B4-4A11-BDE0-BAE8E4834090}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -17571,18 +17571,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0096DC8E-38A7-48D2-B04B-59BF386C1B9F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D2B613A7-EA65-4BA8-9131-7FCF3ACBDB43}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5273C3C8-1AD2-4D30-AF45-FD601423DB02}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FAF23064-1EA7-4B0F-B97F-6C1E3CFC288A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3E2198AE-C0FF-4CE5-9AEB-7224E0184524}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EDBB9600-4319-4D68-954E-8CB8F8DCB06C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6E878CB6-8F25-4DEC-8ED1-68574824D0BE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F8429E1B-F04F-4ED6-9EF9-1FDF8BC90877}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{87DE8D04-B2EF-434A-84B7-3E1709BA3AF8}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C31F3A95-9828-47C5-BFD4-FC2DB8CDB72B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6A6B419A-DF81-4C4A-8A81-8DA7BE8E0CE9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F0C653C5-EB70-4E34-937D-0CDF77895CD9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{800C3138-C16C-4985-970D-25944ADF67BE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2A0B49D8-D4C2-4298-BBC7-D53318FF3082}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7544831C-ECC7-41D0-A572-1040F508AA5E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CA1AC696-CF92-4BE4-8397-5450ED0C7050}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0F82A7C6-8B21-4277-868C-F4A95BB8018F}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B62E99B7-079C-4620-9E0C-134BABA9BE89}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2911B255-9689-43E5-BC64-0D7A1929F049}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5833ABAB-BDD6-4EE5-B87A-E870E070FB2B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2027520F-60BC-43F1-A957-6E2F7704C25D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{385F3490-378E-4D32-B986-F42453CE24A3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6BC0C63A-4C6A-4961-8417-692314AD4393}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7F920B8B-20B9-4EB7-ABC3-D898B15623A8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
